--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -24,12 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Poridiji</t>
-  </si>
-  <si>
-    <t>sertkj</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mark1</t>
+  </si>
+  <si>
+    <t>Mark2</t>
+  </si>
+  <si>
+    <t>Indhu</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Luna</t>
   </si>
 </sst>
 </file>
@@ -347,20 +362,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
